--- a/plotpackage/myproject/version3/bonds/bonds_explain.xlsx
+++ b/plotpackage/myproject/version3/bonds/bonds_explain.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="6880" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="6880" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Blank" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,14 @@
     <sheet name="compare" sheetId="15" r:id="rId14"/>
     <sheet name="compare2" sheetId="17" r:id="rId15"/>
     <sheet name="bonds" sheetId="18" r:id="rId16"/>
+    <sheet name="O-M" sheetId="19" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3434" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="59">
   <si>
     <t>single</t>
   </si>
@@ -209,6 +210,9 @@
   <si>
     <t>Overlayer</t>
   </si>
+  <si>
+    <t>O-M bonds</t>
+  </si>
 </sst>
 </file>
 
@@ -305,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -323,13 +327,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
@@ -2627,28 +2636,28 @@
       <c r="A67" s="2">
         <v>65</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" s="12">
+      <c r="E67" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="11">
         <v>2.2120000000000002</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G67" s="11">
         <v>2.2450000000000001</v>
       </c>
-      <c r="H67" s="12">
+      <c r="H67" s="11">
         <v>-328.98599999999999</v>
       </c>
-      <c r="I67" s="12">
+      <c r="I67" s="11">
         <v>1669</v>
       </c>
     </row>
@@ -2656,28 +2665,28 @@
       <c r="A68" s="2">
         <v>66</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E68" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="12">
+      <c r="E68" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="11">
         <v>2.1989999999999998</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G68" s="11">
         <v>2.9380000000000002</v>
       </c>
-      <c r="H68" s="12">
+      <c r="H68" s="11">
         <v>-328.86099999999999</v>
       </c>
-      <c r="I68" s="12">
+      <c r="I68" s="11">
         <v>1673</v>
       </c>
     </row>
@@ -2685,28 +2694,28 @@
       <c r="A69" s="2">
         <v>67</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="12">
+      <c r="E69" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="11">
         <v>2.0840000000000001</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G69" s="11">
         <v>2.85</v>
       </c>
-      <c r="H69" s="12">
+      <c r="H69" s="11">
         <v>-329.565</v>
       </c>
-      <c r="I69" s="12">
+      <c r="I69" s="11">
         <v>1677</v>
       </c>
     </row>
@@ -2714,28 +2723,28 @@
       <c r="A70" s="2">
         <v>68</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E70" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" s="12">
+      <c r="E70" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="11">
         <v>2.0659999999999998</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G70" s="12">
         <v>2.34</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H70" s="12">
         <v>-329.173</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I70" s="12">
         <v>1681</v>
       </c>
     </row>
@@ -2743,28 +2752,28 @@
       <c r="A71" s="2">
         <v>69</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D71" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="12">
+      <c r="E71" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="11">
         <v>2.2069999999999999</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G71" s="11">
         <v>2.831</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H71" s="11">
         <v>-328.72</v>
       </c>
-      <c r="I71" s="12">
+      <c r="I71" s="11">
         <v>1685</v>
       </c>
     </row>
@@ -4617,7 +4626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30:I31"/>
     </sheetView>
   </sheetViews>
@@ -10334,44 +10343,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:X23"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="J1" s="7" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="J1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
       <c r="M1" s="6"/>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="7"/>
-      <c r="R1" s="7" t="s">
+      <c r="P1" s="13"/>
+      <c r="R1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="V1" s="7" t="s">
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="V1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -12043,12 +12052,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="V1:X1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="R1:T1"/>
-    <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12059,39 +12068,39 @@
   <dimension ref="A3:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:O26"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="6"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9" t="s">
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="9"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
@@ -12169,13 +12178,13 @@
       <c r="K5" s="8">
         <v>2.0979999999999999</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5">
         <v>2.4039999999999999</v>
       </c>
       <c r="M5" s="8">
         <v>2.077</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5">
         <v>2.3330000000000002</v>
       </c>
       <c r="O5" s="8">
@@ -12213,13 +12222,13 @@
       <c r="K6" s="8">
         <v>2.032</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6">
         <v>2.2469999999999999</v>
       </c>
       <c r="M6" s="8">
         <v>2.0619999999999998</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6">
         <v>2.3069999999999999</v>
       </c>
       <c r="O6" s="8">
@@ -12257,13 +12266,13 @@
       <c r="K7" s="8">
         <v>1.9990000000000001</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7">
         <v>2.141</v>
       </c>
       <c r="M7" s="8">
         <v>2.1040000000000001</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7">
         <v>2.1459999999999999</v>
       </c>
       <c r="O7" s="8">
@@ -12301,13 +12310,13 @@
       <c r="K8" s="8">
         <v>2.069</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8">
         <v>2.0569999999999999</v>
       </c>
       <c r="M8" s="8">
         <v>2.081</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8">
         <v>2.0419999999999998</v>
       </c>
       <c r="O8" s="8">
@@ -12345,13 +12354,13 @@
       <c r="K9" s="8">
         <v>2.0510000000000002</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9">
         <v>1.9850000000000001</v>
       </c>
       <c r="M9" s="8">
         <v>2.7559999999999998</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9">
         <v>1.958</v>
       </c>
       <c r="O9" s="8">
@@ -12359,530 +12368,530 @@
       </c>
     </row>
     <row r="10" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>1.974</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>2.532</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>2.0099999999999998</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>2.7810000000000001</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>2.036</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>2.8149999999999999</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>2.0209999999999999</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <v>2.7839999999999998</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="5">
         <v>1.9239999999999999</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="9">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="5">
         <v>1.895</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="9">
         <v>1.954</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>2.056</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>2.8559999999999999</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>1.974</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>2.7749999999999999</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>1.954</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>2.766</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <v>1.931</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>2.7570000000000001</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="3">
         <v>1.972</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="9">
         <v>2.8</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="5">
         <v>1.851</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="9">
         <v>1.9730000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>2.0539999999999998</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>2.8519999999999999</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>2.056</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>2.8460000000000001</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>2.0459999999999998</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>2.8450000000000002</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>2.0609999999999999</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <v>2.8540000000000001</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="3">
         <v>2.0510000000000002</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="9">
         <v>2.8460000000000001</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="5">
         <v>1.909</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="9">
         <v>2.0840000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>2.0609999999999999</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>2.8530000000000002</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>2.0609999999999999</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>2.859</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>2.0699999999999998</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>2.871</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <v>2.0590000000000002</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <v>2.851</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="3">
         <v>2.0630000000000002</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="9">
         <v>2.847</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="3">
         <v>2.012</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="9">
         <v>2.8220000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>2.0609999999999999</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>2.855</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>2.0830000000000002</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>2.12</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>2.0760000000000001</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>2.1059999999999999</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <v>2.0739999999999998</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <v>2.1059999999999999</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14">
         <v>2.0720000000000001</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="9">
         <v>2.1219999999999999</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14">
         <v>2.056</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="9">
         <v>2.9220000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>2.3279999999999998</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>2.2549999999999999</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>2.0739999999999998</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>2.2869999999999999</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>2.0870000000000002</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>2.2450000000000001</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>2.14</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <v>2.2530000000000001</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15">
         <v>2.4700000000000002</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="9">
         <v>2.3610000000000002</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15">
         <v>2.5590000000000002</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="9">
         <v>2.2370000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>2.1709999999999998</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>2.2410000000000001</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>2.1789999999999998</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>2.1949999999999998</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>2.1859999999999999</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>2.2170000000000001</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <v>2.1850000000000001</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="9">
         <v>2.2130000000000001</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16">
         <v>2.2240000000000002</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="9">
         <v>2.2250000000000001</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16">
         <v>2.3159999999999998</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="9">
         <v>2.0920000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>2.1</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>2.2559999999999998</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>2.2949999999999999</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>2.2509999999999999</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>2.1179999999999999</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>2.262</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <v>2.3039999999999998</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="9">
         <v>2.1909999999999998</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17">
         <v>2.3029999999999999</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="9">
         <v>2.2050000000000001</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17">
         <v>2.31</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="9">
         <v>2.234</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>2.056</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>2.3140000000000001</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>2.1720000000000002</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>2.2320000000000002</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>2.0379999999999998</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>2.1440000000000001</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <v>2.165</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="9">
         <v>2.1960000000000002</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18">
         <v>2.0840000000000001</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="9">
         <v>2.85</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18">
         <v>2.1659999999999999</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="9">
         <v>2.2029999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>2.1419999999999999</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>2.9550000000000001</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>2.1030000000000002</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>2.8740000000000001</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>2.097</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>2.8889999999999998</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <v>2.11</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="9">
         <v>2.8809999999999998</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="3">
         <v>2.0720000000000001</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="9">
         <v>2.5489999999999999</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="3">
         <v>2.0910000000000002</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="9">
         <v>2.9039999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>2.0579999999999998</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>2.8839999999999999</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>2.0470000000000002</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>2.8570000000000002</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>2.0550000000000002</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>2.875</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <v>2.0550000000000002</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="9">
         <v>2.863</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="3">
         <v>2.0640000000000001</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="9">
         <v>2.8849999999999998</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="3">
         <v>2.0590000000000002</v>
       </c>
-      <c r="O20" s="10">
+      <c r="O20" s="9">
         <v>2.86</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>2.0539999999999998</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>2.847</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>2.0630000000000002</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>2.859</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>2.0750000000000002</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <v>2.8660000000000001</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <v>2.0659999999999998</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="9">
         <v>2.8679999999999999</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="3">
         <v>2.0569999999999999</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="9">
         <v>2.8410000000000002</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="3">
         <v>2.27</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="9">
         <v>3.09</v>
       </c>
     </row>
@@ -12917,13 +12926,13 @@
       <c r="K22" s="8">
         <v>3.4169999999999998</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22">
         <v>2.2759999999999998</v>
       </c>
       <c r="M22" s="8">
         <v>2.492</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22">
         <v>2.298</v>
       </c>
       <c r="O22" s="8">
@@ -12961,13 +12970,13 @@
       <c r="K23" s="8">
         <v>2.097</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23">
         <v>2.2719999999999998</v>
       </c>
       <c r="M23" s="8">
         <v>3.423</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23">
         <v>2.2759999999999998</v>
       </c>
       <c r="O23" s="8">
@@ -13005,13 +13014,13 @@
       <c r="K24" s="8">
         <v>2.1219999999999999</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24">
         <v>2.2909999999999999</v>
       </c>
       <c r="M24" s="8">
         <v>2.153</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24">
         <v>2.2839999999999998</v>
       </c>
       <c r="O24" s="8">
@@ -13049,13 +13058,13 @@
       <c r="K25" s="8">
         <v>2.1669999999999998</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25">
         <v>2.2160000000000002</v>
       </c>
       <c r="M25" s="8">
         <v>2.2160000000000002</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25">
         <v>2.1429999999999998</v>
       </c>
       <c r="O25" s="8">
@@ -13093,13 +13102,13 @@
       <c r="K26" s="8">
         <v>2.1429999999999998</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26">
         <v>2.13</v>
       </c>
       <c r="M26" s="8">
         <v>2.91</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26">
         <v>2.0619999999999998</v>
       </c>
       <c r="O26" s="8">
@@ -13115,6 +13124,558 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="D3:E3"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="15"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2.1230000000000002</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2.129</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2.113</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2.0979999999999999</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2.077</v>
+      </c>
+      <c r="G2" s="8">
+        <v>2.0459999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2.129</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2.0129999999999999</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2.0630000000000002</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2.032</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2.0619999999999998</v>
+      </c>
+      <c r="G3" s="8">
+        <v>2.0590000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2.117</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2.0830000000000002</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2.0539999999999998</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2.1040000000000001</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2.1190000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2.1659999999999999</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2.0920000000000001</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2.0409999999999999</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2.069</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2.081</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2.0720000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2.3919999999999999</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2.0390000000000001</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2.0449999999999999</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2.0510000000000002</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2.7559999999999998</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2.532</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2.7810000000000001</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2.8149999999999999</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.7839999999999998</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1.954</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2.8559999999999999</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2.7749999999999999</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2.766</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2.7570000000000001</v>
+      </c>
+      <c r="F8" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1.9730000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2.8519999999999999</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2.8460000000000001</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2.8540000000000001</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2.8460000000000001</v>
+      </c>
+      <c r="G9" s="9">
+        <v>2.0840000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2.8530000000000002</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2.859</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2.871</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2.851</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2.847</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2.8220000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2.855</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2.12</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2.1059999999999999</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2.1059999999999999</v>
+      </c>
+      <c r="F11" s="9">
+        <v>2.1219999999999999</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2.9220000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2.2549999999999999</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2.2869999999999999</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2.2450000000000001</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2.2530000000000001</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2.3610000000000002</v>
+      </c>
+      <c r="G12" s="9">
+        <v>2.2370000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2.2410000000000001</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2.1949999999999998</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2.2170000000000001</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2.2130000000000001</v>
+      </c>
+      <c r="F13" s="9">
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2.0920000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2.2559999999999998</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2.2509999999999999</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2.262</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2.1909999999999998</v>
+      </c>
+      <c r="F14" s="9">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="G14" s="9">
+        <v>2.234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2.3140000000000001</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2.2320000000000002</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2.1440000000000001</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2.1960000000000002</v>
+      </c>
+      <c r="F15" s="9">
+        <v>2.85</v>
+      </c>
+      <c r="G15" s="9">
+        <v>2.2029999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2.9550000000000001</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2.8740000000000001</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2.8889999999999998</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2.8809999999999998</v>
+      </c>
+      <c r="F16" s="9">
+        <v>2.5489999999999999</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2.9039999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2.8839999999999999</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2.8570000000000002</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2.875</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2.863</v>
+      </c>
+      <c r="F17" s="9">
+        <v>2.8849999999999998</v>
+      </c>
+      <c r="G17" s="9">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2.847</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2.859</v>
+      </c>
+      <c r="D18" s="9">
+        <v>2.8660000000000001</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2.8679999999999999</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2.8410000000000002</v>
+      </c>
+      <c r="G18" s="9">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2.8540000000000001</v>
+      </c>
+      <c r="C19" s="8">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="D19" s="8">
+        <v>2.4430000000000001</v>
+      </c>
+      <c r="E19" s="8">
+        <v>3.4169999999999998</v>
+      </c>
+      <c r="F19" s="8">
+        <v>2.492</v>
+      </c>
+      <c r="G19" s="8">
+        <v>2.4380000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2.198</v>
+      </c>
+      <c r="C20" s="8">
+        <v>2.1669999999999998</v>
+      </c>
+      <c r="D20" s="8">
+        <v>2.1789999999999998</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2.097</v>
+      </c>
+      <c r="F20" s="8">
+        <v>3.423</v>
+      </c>
+      <c r="G20" s="8">
+        <v>2.0449999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2.8420000000000001</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2.2970000000000002</v>
+      </c>
+      <c r="D21" s="8">
+        <v>2.2080000000000002</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2.1219999999999999</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2.153</v>
+      </c>
+      <c r="G21" s="8">
+        <v>2.1840000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="C22" s="8">
+        <v>2.2160000000000002</v>
+      </c>
+      <c r="D22" s="8">
+        <v>2.1219999999999999</v>
+      </c>
+      <c r="E22" s="8">
+        <v>2.1669999999999998</v>
+      </c>
+      <c r="F22" s="8">
+        <v>2.2160000000000002</v>
+      </c>
+      <c r="G22" s="8">
+        <v>2.1389999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2.4039999999999999</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2.19</v>
+      </c>
+      <c r="D23" s="8">
+        <v>2.9060000000000001</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2.1429999999999998</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2.91</v>
+      </c>
+      <c r="G23" s="8">
+        <v>2.1160000000000001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
